--- a/biology/Médecine/Institut_de_veille_sanitaire/Institut_de_veille_sanitaire.xlsx
+++ b/biology/Médecine/Institut_de_veille_sanitaire/Institut_de_veille_sanitaire.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">L'Institut de veille sanitaire (InVS) est une agence sanitaire française ayant existé entre 1998 et 2016, date à laquelle il est remplacé par l’Agence nationale de santé publique.
 C'est un établissement public français rattaché au ministère de la Santé. Il s'agit d'un dispositif reposant sur un ensemble de structures permettant la surveillance, l'information et la prévention en cas de risques sanitaires.
@@ -512,11 +524,13 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Établissement public à caractère administratif, placé sous la tutelle du ministre chargé de la santé[1], l’Institut de veille sanitaire (InVS) succède au Réseau national de Santé publique (RNSP). Il réunit les missions de surveillance, de vigilance et d’alerte dans tous les domaines de la santé publique. Créé par la loi du 1er juillet 1998 relative au renforcement de la veille sanitaire et au contrôle de la sécurité sanitaire des produits destinés à l’homme[2], l’InVS a vu son champ d'action complété et renforcé par la loi du 9 août 2004 relative à la politique de santé publique, afin de répondre aux nouveaux défis révélés par les crises sanitaires récentes et les risques émergents[3][source insuffisante].
-Son premier directeur général est Jacques Drucker[4], auquel ont succédé Gilles Brücker en 2002[5], puis Françoise Weber en 2007[6] et François Bourdillon en 2014[7].
-La loi de modernisation du système de santé de 2016 prévoit la création de l’agence nationale de santé publique, fusion de l’institut de veille sanitaire, l’institut national de prévention et d'éducation pour la santé, l’établissement de préparation et de réponse aux urgences sanitaires, effectivement créé au 1er mai 2016[8],[9].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Établissement public à caractère administratif, placé sous la tutelle du ministre chargé de la santé, l’Institut de veille sanitaire (InVS) succède au Réseau national de Santé publique (RNSP). Il réunit les missions de surveillance, de vigilance et d’alerte dans tous les domaines de la santé publique. Créé par la loi du 1er juillet 1998 relative au renforcement de la veille sanitaire et au contrôle de la sécurité sanitaire des produits destinés à l’homme, l’InVS a vu son champ d'action complété et renforcé par la loi du 9 août 2004 relative à la politique de santé publique, afin de répondre aux nouveaux défis révélés par les crises sanitaires récentes et les risques émergents[source insuffisante].
+Son premier directeur général est Jacques Drucker, auquel ont succédé Gilles Brücker en 2002, puis Françoise Weber en 2007 et François Bourdillon en 2014.
+La loi de modernisation du système de santé de 2016 prévoit la création de l’agence nationale de santé publique, fusion de l’institut de veille sanitaire, l’institut national de prévention et d'éducation pour la santé, l’établissement de préparation et de réponse aux urgences sanitaires, effectivement créé au 1er mai 2016,.
 </t>
         </is>
       </c>
@@ -545,7 +559,9 @@
           <t>Missions</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Les missions confiées à l’InVS recouvrent :
 la surveillance et l'observation permanentes de l'état de santé de la populationL’InVS participe au recueil et au traitement de données sur l'état de santé de la population à des fins épidémiologiques, en s'appuyant notamment sur des correspondants publics, comme le réseau Sentinelles, et privés constituant le réseau national de santé publique ;
@@ -582,7 +598,9 @@
           <t>Champ d’action</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Les missions de l’InVS s’appliquent à l’ensemble des domaines de la santé publique :
 les maladies infectieuses : infection par le VIH, virus des hépatites B et C, infections sexuellement transmissibles, tuberculose, risques infectieux d’origine alimentaire, zoonoses, maladies évitables par la vaccination, infections nosocomiales et résistance aux antibiotiques, infections respiratoires, grippe saisonnière et grippe aviaire, arboviroses, maladies tropicales et risques d’importation ;
@@ -617,7 +635,9 @@
           <t>Régionalisation</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>L’Institut de veille sanitaire (InVS) dispose d’antennes régionales, les cellules de l'InVS en région (« Cire »), capables de décliner localement son savoir-faire et de relayer son action. Elles sont placées sous la responsabilité scientifique de la directrice générale de l’InVS et sont sous la direction de l'ARS (agence régionale de santé). Les Cire fournissent aux services déconcentrés de l’État un appui méthodologique et une expertise indépendante des signaux d’alerte sanitaire. Elles animent la veille en région, pour le compte de l’InVS.
 Le dispositif compte dix-sept Cire, quinze métropolitaines et deux ultra-marines. Neuf Cire sont interrégionales, huit sont monorégionales. Aujourd’hui, environ 130 personnes travaillent dans les Cire dont 90 épidémiologistes en CDI sur des missions générales de veille et d’alerte. Ces postes sont pour moitié de statut État et pour l’autre de statut InVS.
@@ -651,7 +671,9 @@
           <t>Publication</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">L'InVS publie des rapports scientifiques et plusieurs bulletins d'information dont le Bulletin épidémiologique hebdomadaire (BEH). Les publications sont toutes disponibles sur le site Internet de l'InVS rubrique Publications.
 </t>
